--- a/source_plates/221018_arpae_plasmids_updated.xlsx
+++ b/source_plates/221018_arpae_plasmids_updated.xlsx
@@ -643,14 +643,14 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>47.08</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>57.15,</t>
+          <t>47.15,</t>
         </is>
       </c>
     </row>
